--- a/Limitless/LimitLess/Files/standard_files/excel_format.xlsx
+++ b/Limitless/LimitLess/Files/standard_files/excel_format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADSIXPS15\Documents\LimitlessAdmin-update\Limitless\LimitLess\Files\standard_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADSIXPS15\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Please select a subject</t>
   </si>
@@ -90,9 +90,6 @@
     <t xml:space="preserve">Sub Objective Name </t>
   </si>
   <si>
-    <t xml:space="preserve">Question Content </t>
-  </si>
-  <si>
     <t xml:space="preserve">Question Type </t>
   </si>
   <si>
@@ -157,6 +154,12 @@
   </si>
   <si>
     <t>4 - Image Only</t>
+  </si>
+  <si>
+    <t>Question Content</t>
+  </si>
+  <si>
+    <t>Answer Content</t>
   </si>
 </sst>
 </file>
@@ -513,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,25 +527,24 @@
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="15.77734375" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="15" width="21.44140625" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" customWidth="1"/>
-    <col min="17" max="17" width="23" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" customWidth="1"/>
-    <col min="19" max="20" width="21.44140625" customWidth="1"/>
-    <col min="21" max="21" width="19.6640625" customWidth="1"/>
-    <col min="22" max="22" width="23" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" customWidth="1"/>
-    <col min="24" max="25" width="21.44140625" customWidth="1"/>
-    <col min="26" max="26" width="24.44140625" customWidth="1"/>
-    <col min="27" max="27" width="33.77734375" customWidth="1"/>
+    <col min="11" max="12" width="24.44140625" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="16" width="21.44140625" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="18" max="18" width="23" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="20" max="21" width="21.44140625" customWidth="1"/>
+    <col min="22" max="22" width="19.6640625" customWidth="1"/>
+    <col min="23" max="23" width="23" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" customWidth="1"/>
+    <col min="25" max="26" width="21.44140625" customWidth="1"/>
+    <col min="28" max="28" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -562,67 +564,67 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +667,7 @@
           <x14:formula1>
             <xm:f>'Drop down items'!$H$1:$H$2</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:O1048576 S2:T1048576 X2:Y1048576 J2:J1048576</xm:sqref>
+          <xm:sqref>O2:P1048576 T2:U1048576 Y2:Z1048576 J2:J1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -735,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -744,13 +746,13 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -761,19 +763,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -781,24 +783,24 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
